--- a/src/P02_data/T04_preprocess/S10_center_location_7_individual.xlsx
+++ b/src/P02_data/T04_preprocess/S10_center_location_7_individual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J163"/>
+  <dimension ref="A1:K163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>measurement</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>diff_sigma_x</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -520,6 +525,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -556,6 +564,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -592,6 +603,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -628,6 +642,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -664,6 +681,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K6" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -700,6 +720,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K7" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -736,6 +759,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K8" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -772,6 +798,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -808,6 +837,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K10" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -844,6 +876,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -880,6 +915,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -916,6 +954,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -952,6 +993,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K14" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -988,6 +1032,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K15" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1024,6 +1071,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K16" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1060,6 +1110,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1096,6 +1149,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K18" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1132,6 +1188,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K19" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1168,6 +1227,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K20" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1204,6 +1266,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1240,6 +1305,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1276,6 +1344,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1312,6 +1383,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1348,6 +1422,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K25" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1384,6 +1461,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K26" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1420,6 +1500,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K27" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1456,6 +1539,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K28" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1492,6 +1578,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K29" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1528,6 +1617,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K30" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1564,6 +1656,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K31" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1600,6 +1695,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1636,6 +1734,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K33" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1672,6 +1773,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K34" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1708,6 +1812,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K35" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1744,6 +1851,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K36" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1780,6 +1890,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K37" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1816,6 +1929,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K38" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1852,6 +1968,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K39" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1888,6 +2007,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1924,6 +2046,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1960,6 +2085,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K42" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1996,6 +2124,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2032,6 +2163,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K44" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2068,6 +2202,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K45" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2104,6 +2241,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K46" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2140,6 +2280,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2176,6 +2319,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K48" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2212,6 +2358,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K49" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2248,6 +2397,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2284,6 +2436,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K51" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2320,6 +2475,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K52" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2356,6 +2514,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K53" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2392,6 +2553,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2428,6 +2592,9 @@
           <t>first</t>
         </is>
       </c>
+      <c r="K55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2464,6 +2631,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K56" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2500,6 +2670,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K57" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2536,6 +2709,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2572,6 +2748,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K59" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2608,6 +2787,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K60" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2644,6 +2826,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K61" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2680,6 +2865,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K62" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2716,6 +2904,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K63" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2752,6 +2943,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K64" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2788,6 +2982,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K65" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2824,6 +3021,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2860,6 +3060,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2895,6 +3098,9 @@
         <is>
           <t>second</t>
         </is>
+      </c>
+      <c r="K68" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="69">
@@ -2932,6 +3138,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K69" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2968,6 +3177,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K70" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3004,6 +3216,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K71" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3040,6 +3255,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3076,6 +3294,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K73" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3112,6 +3333,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K74" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3148,6 +3372,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3184,6 +3411,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K76" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3220,6 +3450,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K77" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3256,6 +3489,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3292,6 +3528,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3328,6 +3567,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K80" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3364,6 +3606,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K81" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3400,6 +3645,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K82" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3436,6 +3684,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3472,6 +3723,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3508,6 +3762,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K85" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3544,6 +3801,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3580,6 +3840,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3616,6 +3879,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K88" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3652,6 +3918,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3688,6 +3957,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K90" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3724,6 +3996,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K91" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3760,6 +4035,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3796,6 +4074,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K93" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3832,6 +4113,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K94" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3868,6 +4152,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3904,6 +4191,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K96" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3940,6 +4230,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K97" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3976,6 +4269,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K98" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4012,6 +4308,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K99" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4048,6 +4347,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4084,6 +4386,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4120,6 +4425,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K102" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4156,6 +4464,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K103" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4192,6 +4503,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K104" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4228,6 +4542,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K105" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4264,6 +4581,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K106" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4300,6 +4620,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K107" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4336,6 +4659,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K108" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4372,6 +4698,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K109" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4408,6 +4737,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K110" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4444,6 +4776,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K111" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4480,6 +4815,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K112" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4516,6 +4854,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K113" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4552,6 +4893,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K114" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4588,6 +4932,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K115" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4624,6 +4971,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K116" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4660,6 +5010,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K117" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4696,6 +5049,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K118" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4732,6 +5088,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K119" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4768,6 +5127,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K120" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4804,6 +5166,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4840,6 +5205,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K122" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4876,6 +5244,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K123" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4912,6 +5283,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K124" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4948,6 +5322,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K125" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4984,6 +5361,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K126" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -5020,6 +5400,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K127" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -5056,6 +5439,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K128" t="n">
+        <v>-8</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -5092,6 +5478,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K129" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -5128,6 +5517,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K130" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -5164,6 +5556,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K131" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -5200,6 +5595,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K132" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -5236,6 +5634,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K133" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -5272,6 +5673,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K134" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -5308,6 +5712,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K135" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -5344,6 +5751,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K136" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -5380,6 +5790,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K137" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -5416,6 +5829,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K138" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -5452,6 +5868,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K139" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -5488,6 +5907,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K140" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -5524,6 +5946,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K141" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -5560,6 +5985,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K142" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -5596,6 +6024,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K143" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -5632,6 +6063,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K144" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -5668,6 +6102,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K145" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -5704,6 +6141,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K146" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -5740,6 +6180,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K147" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -5776,6 +6219,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K148" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -5812,6 +6258,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K149" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -5848,6 +6297,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K150" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -5884,6 +6336,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K151" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -5920,6 +6375,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K152" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5956,6 +6414,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K153" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -5992,6 +6453,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K154" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -6028,6 +6492,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K155" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -6064,6 +6531,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -6100,6 +6570,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K157" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -6136,6 +6609,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K158" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -6172,6 +6648,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K159" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -6208,6 +6687,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K160" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -6244,6 +6726,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K161" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -6280,6 +6765,9 @@
           <t>second</t>
         </is>
       </c>
+      <c r="K162" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -6315,6 +6803,9 @@
         <is>
           <t>second</t>
         </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
